--- a/Modelos em Python/14_Erros_todo.xlsx
+++ b/Modelos em Python/14_Erros_todo.xlsx
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.207643325711624</v>
+        <v>5.374107959847639</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3522710354550628</v>
+        <v>0.3643048485357486</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1334265983138646</v>
+        <v>0.1384394662899954</v>
       </c>
     </row>
     <row r="8">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.910318555363362</v>
+        <v>5.904496928644733</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3925221646546183</v>
+        <v>0.3922407820439422</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1532416493823198</v>
+        <v>0.1530446016993076</v>
       </c>
     </row>
     <row r="10">

--- a/Modelos em Python/14_Erros_todo.xlsx
+++ b/Modelos em Python/14_Erros_todo.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Linear Regression</t>
+          <t>Decision Tree Regressor</t>
         </is>
       </c>
       <c r="B10" t="n">

--- a/Modelos em Python/14_Erros_todo.xlsx
+++ b/Modelos em Python/14_Erros_todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.949551832562335</v>
+        <v>11.60838220710936</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3349214681311964</v>
+        <v>0.756806769815738</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1274225033935555</v>
+        <v>0.2669784801303497</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.92272762191879</v>
+        <v>11.58526625202926</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3932635019275451</v>
+        <v>0.7542488940023088</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1537505559508456</v>
+        <v>0.2653275291616243</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.002056042432444</v>
+        <v>11.35179361555503</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3385605885343373</v>
+        <v>0.7419335362769605</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1279984407648803</v>
+        <v>0.2613218625962447</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.615561971251562</v>
+        <v>11.61726576396374</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3107396206446223</v>
+        <v>0.757265795576366</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1194375703427492</v>
+        <v>0.267190909263968</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.736253335100264</v>
+        <v>11.56371955523939</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3194161273033073</v>
+        <v>0.7535031605360103</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1218309498445792</v>
+        <v>0.2657868370769816</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.374107959847639</v>
+        <v>11.69528360240817</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3643048485357486</v>
+        <v>0.7626900686597965</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1384394662899954</v>
+        <v>0.268012746405583</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.859599257559569</v>
+        <v>11.57210470524758</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3892201191248326</v>
+        <v>0.7533369323659038</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1522167109424173</v>
+        <v>0.2651578327390602</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.904496928644733</v>
+        <v>11.53335001079212</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3922407820439422</v>
+        <v>0.7507555096283665</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1530446016993076</v>
+        <v>0.2642443103233995</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.363708606419194</v>
+        <v>6.601501568670119</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4669047839131917</v>
+        <v>0.5627180156425015</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1234941320096317</v>
+        <v>0.1573402187938888</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.813290098345869</v>
+        <v>12.26444929014594</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6530680717844557</v>
+        <v>0.9021200343939612</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2209493417278251</v>
+        <v>0.3198515465982601</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.067067661361058</v>
+        <v>12.83889709825592</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6746983439487594</v>
+        <v>0.9547249774671066</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2260082564281568</v>
+        <v>0.3319021994542743</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.1676047312281</v>
+        <v>12.10404440686681</v>
       </c>
       <c r="C13" t="n">
-        <v>0.770235240353077</v>
+        <v>0.8875636611724068</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2514664422272983</v>
+        <v>0.3161932476793201</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/14_Erros_todo.xlsx
+++ b/Modelos em Python/14_Erros_todo.xlsx
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.601501568670119</v>
+        <v>6.771723610595826</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5627180156425015</v>
+        <v>0.5774736472189149</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1573402187938888</v>
+        <v>0.1582483462268681</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.26444929014594</v>
+        <v>12.02896011902735</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9021200343939612</v>
+        <v>0.8808312186933051</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3198515465982601</v>
+        <v>0.3150240649955602</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.83889709825592</v>
+        <v>12.50173832611634</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9547249774671066</v>
+        <v>0.9237197691236861</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3319021994542743</v>
+        <v>0.3246178275596919</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.10404440686681</v>
+        <v>12.14381612042139</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8875636611724068</v>
+        <v>0.8911445697058425</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3161932476793201</v>
+        <v>0.3169273748261556</v>
       </c>
     </row>
   </sheetData>

--- a/Modelos em Python/14_Erros_todo.xlsx
+++ b/Modelos em Python/14_Erros_todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.06402642931285</v>
+        <v>12.07649899816975</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8839900532505376</v>
+        <v>0.8851090349917868</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3157163382530099</v>
+        <v>0.3159432297819756</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/14_Erros_todo.xlsx
+++ b/Modelos em Python/14_Erros_todo.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Decision Tree Regressor</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,17 +597,17 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Random Forest Regressor</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.07649899816975</v>
+        <v>12.06118703138305</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8851090349917868</v>
+        <v>0.8837386347742959</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3159432297819756</v>
+        <v>0.3156855052543041</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/14_Erros_todo.xlsx
+++ b/Modelos em Python/14_Erros_todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.06118703138305</v>
+        <v>12.03478765709648</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8837386347742959</v>
+        <v>0.8813448506893412</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3156855052543041</v>
+        <v>0.315079735584579</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/14_Erros_todo.xlsx
+++ b/Modelos em Python/14_Erros_todo.xlsx
@@ -581,7 +581,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DTR</t>
+          <t>DT</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,23 +597,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RFR</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.03478765709648</v>
+        <v>12.09008838644069</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8813448506893412</v>
+        <v>0.8863420818754547</v>
       </c>
       <c r="D11" t="n">
-        <v>0.315079735584579</v>
+        <v>0.3162505759780193</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBRegressor</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -629,7 +629,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LGBMRegressor</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/14_Erros_todo.xlsx
+++ b/Modelos em Python/14_Erros_todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.60838220710936</v>
+        <v>11.62314591650364</v>
       </c>
       <c r="C2" t="n">
-        <v>0.756806769815738</v>
+        <v>0.7579294610712669</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2669784801303497</v>
+        <v>0.2672864116906454</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.65147082072603</v>
+        <v>11.6352254069672</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7584387873127123</v>
+        <v>0.7576925213520629</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2668253266900027</v>
+        <v>0.2666443835689461</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.35179361555503</v>
+        <v>9.243239282716083</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7419335362769605</v>
+        <v>0.6129221340039172</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2613218625962447</v>
+        <v>0.2128301401211927</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.61726576396374</v>
+        <v>11.6254979192332</v>
       </c>
       <c r="C5" t="n">
-        <v>0.757265795576366</v>
+        <v>0.7581226657775527</v>
       </c>
       <c r="D5" t="n">
-        <v>0.267190909263968</v>
+        <v>0.2673375855661439</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.56371955523939</v>
+        <v>11.54270432578008</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7535031605360103</v>
+        <v>0.7518764502409466</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2657868370769816</v>
+        <v>0.265178707236779</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.69528360240817</v>
+        <v>11.51791261473129</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7626900686597965</v>
+        <v>0.7498034400800908</v>
       </c>
       <c r="D7" t="n">
-        <v>0.268012746405583</v>
+        <v>0.2633026249359526</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.77788796743944</v>
+        <v>11.67169946529055</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7665844493497499</v>
+        <v>0.7597137092005602</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2696617560899678</v>
+        <v>0.2673565785825826</v>
       </c>
     </row>
     <row r="9">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.66555772131088</v>
+        <v>11.7038376643735</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7593726156563692</v>
+        <v>0.7616484500105783</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2671983423493009</v>
+        <v>0.2676679675117031</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>DT</t>
+          <t>DTR</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -597,39 +597,39 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RFR</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.09008838644069</v>
+        <v>12.10612413999924</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8863420818754547</v>
+        <v>0.8877924921908211</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3162505759780193</v>
+        <v>0.3165997391163862</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XGBoost</t>
+          <t>XGBRegressor</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.38444211550362</v>
+        <v>12.31943872384078</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9130875457640775</v>
+        <v>0.907246669090416</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3224765221152489</v>
+        <v>0.3212620957953338</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>LightGBM</t>
+          <t>LGBMRegressor</t>
         </is>
       </c>
       <c r="B13" t="n">

--- a/Modelos em Python/14_Erros_todo.xlsx
+++ b/Modelos em Python/14_Erros_todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.62314591650364</v>
+        <v>23.2429228538484</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7579294610712669</v>
+        <v>0.7578852183639018</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2672864116906454</v>
+        <v>0.2672030897368774</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.6352254069672</v>
+        <v>23.26656578786529</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7576925213520629</v>
+        <v>0.7575869958012607</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2666443835689461</v>
+        <v>0.2666110065393362</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.243239282716083</v>
+        <v>21.33797975773302</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6129221340039172</v>
+        <v>0.7017674095258957</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2128301401211927</v>
+        <v>0.2458656415681899</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.6254979192332</v>
+        <v>23.22554929383355</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7581226657775527</v>
+        <v>0.7573260378852162</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2673375855661439</v>
+        <v>0.267092926262849</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11.54270432578008</v>
+        <v>23.13369667125639</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7518764502409466</v>
+        <v>0.7537987903375875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.265178707236779</v>
+        <v>0.2658099479285121</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.51791261473129</v>
+        <v>23.14822661536315</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7498034400800908</v>
+        <v>0.7532187411645855</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2633026249359526</v>
+        <v>0.2655901851959679</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.67169946529055</v>
+        <v>23.36151872535398</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7597137092005602</v>
+        <v>0.7602992406463716</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2673565785825826</v>
+        <v>0.2675466590097685</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.7038376643735</v>
+        <v>23.42114399065741</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7616484500105783</v>
+        <v>0.7621545925319191</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2676679675117031</v>
+        <v>0.2681955935153025</v>
       </c>
     </row>
     <row r="10">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.771723610595826</v>
+        <v>13.54344722119162</v>
       </c>
       <c r="C10" t="n">
         <v>0.5774736472189149</v>
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.10612413999924</v>
+        <v>24.14223661399939</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8877924921908211</v>
+        <v>0.8846253922899343</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3165997391163862</v>
+        <v>0.3158435669667571</v>
       </c>
     </row>
     <row r="12">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.31943872384078</v>
+        <v>24.63887744768157</v>
       </c>
       <c r="C12" t="n">
         <v>0.907246669090416</v>
@@ -633,7 +633,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12.11829178530377</v>
+        <v>24.23658357060753</v>
       </c>
       <c r="C13" t="n">
         <v>0.8889299636570607</v>

--- a/Modelos em Python/14_Erros_todo.xlsx
+++ b/Modelos em Python/14_Erros_todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
     </row>
     <row r="12">

--- a/Modelos em Python/14_Erros_todo.xlsx
+++ b/Modelos em Python/14_Erros_todo.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="D11" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
     </row>
     <row r="12">
